--- a/Excel Answersheet.xlsx
+++ b/Excel Answersheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritik\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B43C5DE-0A8D-4647-B1DB-50521DB2764D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38ED94B-A5FF-4449-AD10-7E61C697B1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{27704BA2-B7FD-4C4D-8AD8-C67A0A639EA0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{27704BA2-B7FD-4C4D-8AD8-C67A0A639EA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions 1-5" sheetId="1" r:id="rId1"/>
@@ -1997,7 +1997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2012,40 +2012,16 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="12"/>
@@ -2060,6 +2036,59 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2069,38 +2098,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2116,61 +2113,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>467360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCF32A6-028C-1FD7-E409-9DD04F5D3D77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7703820" y="2560320"/>
-          <a:ext cx="4734560" cy="1628775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2472,7 +2414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72614BBA-4707-4C38-A186-48F43A7270B6}">
   <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="105" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="105" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2485,51 +2427,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
@@ -2537,68 +2479,68 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="15" spans="1:11" ht="18">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2623,7 +2565,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2648,34 +2590,34 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="18">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="4" t="s">
@@ -2698,16 +2640,16 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
@@ -2730,16 +2672,16 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
@@ -2767,20 +2709,20 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="18">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="5" t="s">
@@ -2794,92 +2736,92 @@
     </row>
     <row r="54" spans="1:12" ht="15" thickBot="1"/>
     <row r="55" spans="1:12" ht="15" thickBot="1">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="35" t="s">
+      <c r="D55" s="20" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="46.8" customHeight="1" thickBot="1">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="17" t="str">
+      <c r="C56" s="10" t="str">
         <f>IF(A1&gt;50,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="47.4" customHeight="1" thickBot="1">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="17" t="b">
+      <c r="C57" s="10" t="b">
         <f>AND(A1&gt;50,B1&gt;60)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="10" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="37.200000000000003" customHeight="1" thickBot="1">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="17" t="b">
+      <c r="C58" s="10" t="b">
         <f>OR(A1&gt;50,B1&gt;60)</f>
         <v>1</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="29.4" thickBot="1">
-      <c r="A59" s="36" t="s">
+    <row r="59" spans="1:12" ht="15" thickBot="1">
+      <c r="A59" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="17" t="b">
+      <c r="C59" s="10" t="b">
         <f>NOT(A1&gt;50)</f>
         <v>0</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="34"/>
+      <c r="A60" s="19"/>
     </row>
     <row r="61" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
     </row>
     <row r="62" spans="1:12" ht="19.8" customHeight="1"/>
     <row r="63" spans="1:12" ht="19.8" customHeight="1">
@@ -2912,79 +2854,79 @@
     </row>
     <row r="69" spans="1:3" ht="15" thickBot="1"/>
     <row r="70" spans="1:3" ht="15" thickBot="1">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="20" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="43.8" thickBot="1">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="10" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="10" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B73" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="29.4" thickBot="1">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15" thickBot="1">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3022,126 +2964,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="7">
         <v>27</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="7" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3152,7 +3094,6 @@
     <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3172,214 +3113,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1"/>
-    <row r="3" spans="1:11" ht="29.4" thickBot="1">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:11" ht="15" thickBot="1">
+      <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="51" customHeight="1" thickBot="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="39" customHeight="1" thickBot="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>28</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="7">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>28</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="7">
         <v>26</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <v>28</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>29</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>28</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3389,64 +3330,64 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="7">
         <v>26</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <v>28</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="7">
         <v>29</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <v>28</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3491,295 +3432,295 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>26</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="7">
         <v>27</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="7">
         <v>26</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>28</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="7">
         <v>29</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <v>28</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="7">
         <v>27</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="7" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <v>26</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>28</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>29</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>28</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="7">
         <v>27</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="7" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3812,129 +3753,129 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>100</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>80</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>100</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>95</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>25</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11">
         <f>AVERAGE(B4:B9)</f>
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12">
         <f>MAX(B4:B9)</f>
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13">
         <f>MIN(B4:B9)</f>
         <v>20</v>
@@ -3954,7 +3895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD94FFB-CB51-4B2B-A61A-C4CD08CCFCC7}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:F35"/>
     </sheetView>
   </sheetViews>
@@ -3968,33 +3909,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="78.599999999999994" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
@@ -4002,27 +3943,27 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -4032,17 +3973,17 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4052,22 +3993,22 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4075,17 +4016,17 @@
       <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
@@ -4098,12 +4039,12 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4113,27 +4054,27 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4151,217 +4092,217 @@
       <c r="A33" s="3"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="16" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="7">
         <v>100</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>25</v>
       </c>
-      <c r="E39" s="8" t="b">
+      <c r="E39" s="7" t="b">
         <f>ISBLANK(D39)</f>
         <v>0</v>
       </c>
-      <c r="F39" s="8" t="b">
+      <c r="F39" s="7" t="b">
         <f>ISBLANK(D39)</f>
         <v>0</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="37">
         <f>COUNTBLANK(C39:C44)</f>
         <v>2</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="37">
         <f>COUNTBLANK(D39:D44)</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="7">
         <v>80</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>28</v>
       </c>
-      <c r="E40" s="8" t="b">
+      <c r="E40" s="7" t="b">
         <f t="shared" ref="E40:E44" si="0">ISBLANK(C40)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="8" t="b">
+      <c r="F40" s="7" t="b">
         <f t="shared" ref="F40:F44" si="1">ISBLANK(D40)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="7">
         <v>20</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8" t="b">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F41" s="8" t="b">
+      <c r="F41" s="7" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="7">
         <v>100</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>30</v>
       </c>
-      <c r="E42" s="8" t="b">
+      <c r="E42" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F42" s="8" t="b">
+      <c r="F42" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="7">
         <v>95</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>21</v>
       </c>
-      <c r="E43" s="8" t="b">
+      <c r="E43" s="7" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F43" s="8" t="b">
+      <c r="F43" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="7">
         <v>25</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7">
         <v>27</v>
       </c>
-      <c r="E44" s="8" t="b">
+      <c r="E44" s="7" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F44" s="8" t="b">
+      <c r="F44" s="7" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
